--- a/biology/Médecine/Récepteur_(biochimie)/Récepteur_(biochimie).xlsx
+++ b/biology/Médecine/Récepteur_(biochimie)/Récepteur_(biochimie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_(biochimie)</t>
+          <t>Récepteur_(biochimie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, un récepteur est une protéine de la membrane cellulaire ou du cytoplasme ou du noyau cellulaire qui se lie spécifiquement à un facteur spécifique (un ligand, tels un neurotransmetteur, une hormone, une molécule médicamenteuse, une toxine, un ion calcium, ou une protéine spécifique de la membrane d'un virus…), induisant une réponse cellulaire à ce ligand. 
 Les modifications du comportement du récepteur protéique induites par le ligand conduisent à des modifications physiologiques qui constituent les « effets biologiques » du ligand.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_(biochimie)</t>
+          <t>Récepteur_(biochimie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De nombreuses maladies génétiques sont dues à des anomalies au niveau des gènes codant ces récepteurs. Parfois, il est difficile de dire si le récepteur n'est pas fonctionnel ou si le niveau de production de l'hormone correspondante est diminué ; ces cas entrent dans la catégorie de maladies endocrines dites « pseudo-hypo- » dans lesquelles la réponse insuffisante du récepteur à son hormone passe pour un déficit dans la production de cette dernière.
 Il existe différents types de récepteurs en fonction de leur ligand et de leurs fonctions :
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_(biochimie)</t>
+          <t>Récepteur_(biochimie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Agonistes versus antagonistes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tous les ligands qui se fixent à un récepteur ne l'activent pas obligatoirement, il existe différents types de ligands :
 agonistes (totaux) qui sont capables d'activer le récepteur et le résultat de la réponse biologique est maximal. La plupart des ligands naturels sont des agonistes totaux ;
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_(biochimie)</t>
+          <t>Récepteur_(biochimie)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,12 +599,52 @@
           <t>Récepteurs transmembranaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux grands types de récepteurs membranaires : les récepteurs ionotropes qui sont des protéines canal et les récepteurs métabotropes qui sont couplés soit à des protéines G (RCPG) soit à une enzyme (tyrosine kinase, histidines kinases, guanylate cyclase…).
-Récepteurs métabotropes
-Récepteurs couplés aux protéines G (RCPG)
-Ces récepteurs sont aussi connus sous le nom de récepteurs à 7 domaines transmembranaires
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Récepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9cepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Récepteurs transmembranaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Récepteurs métabotropes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Récepteurs couplés aux protéines G (RCPG)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ces récepteurs sont aussi connus sous le nom de récepteurs à 7 domaines transmembranaires
 Récepteurs muscariniques à l'acétylcholine (Acétylcholine et Muscarine)
 Récepteurs à l'adénosine (Adénosine)
 Récepteurs adrénergiques (Adrénaline et autres médicaments ou hormones structurellement proches)
@@ -610,9 +666,47 @@
 Récepteurs de la somatostatine (Somatostatine)
 Récepteurs calciques (Calcium)
 Récepteurs des chimiokines (en) (Chimiokines)
-et bien d'autres…
-Récepteur à activité tyrosine kinase
-Ces récepteurs détectent leur(s) ligand(s) et propagent le signal grâce à l'activité tyrosine kinase de leur domaine intracellulaire.
+et bien d'autres…</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Récepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9cepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Récepteurs transmembranaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récepteurs métabotropes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Récepteur à activité tyrosine kinase</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ces récepteurs détectent leur(s) ligand(s) et propagent le signal grâce à l'activité tyrosine kinase de leur domaine intracellulaire.
 Cette famille de récepteurs comprend :
 Récepteur de l'EGF (facteur de croissance épidermique)
 Récepteurs à l'érythropoïétine (en) (Érythropoïétine)
@@ -620,12 +714,84 @@
 Récepteurs EPH
 Récepteurs à l'IGF-1 (en) (IGF-1)
 Divers récepteurs pour des facteurs de croissance et des cytokines
-etc.
-Récepteurs guanylyl-cyclases
-GC-A et GC-B : récepteurs pour le peptide natriurétique atrial (ANP) et d'autres peptides natriurétiques
-GC-C : récepteur à la guanyline
-Récepteurs ionotropes
-Récepteurs nicotiniques à l'acétylcholine (Acétylcholine et Nicotine)
+etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Récepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9cepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Récepteurs transmembranaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Récepteurs métabotropes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Récepteurs guanylyl-cyclases</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>GC-A et GC-B : récepteurs pour le peptide natriurétique atrial (ANP) et d'autres peptides natriurétiques
+GC-C : récepteur à la guanyline</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Récepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9cepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Récepteurs transmembranaires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Récepteurs ionotropes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Récepteurs nicotiniques à l'acétylcholine (Acétylcholine et Nicotine)
 Récepteurs à la glycine (en) GlyR (Glycine et Strychnine)
 Récepteurs au GABA de type A et de type C (GABA)
 Récepteurs au glutamate (en) : Récepteur AMPA et Récepteur NMDA (Glutamate)
@@ -636,34 +802,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>R%C3%A9cepteur_(biochimie)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9cepteur_(biochimie)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Récepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9cepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Récepteurs intracellulaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Facteurs de transcriptions
-Les récepteurs nucléaires :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Facteurs de transcriptions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les récepteurs nucléaires :
 récepteur des hormones stéroïdes :
 récepteur des œstrogènes,
 récepteur de la progestérone,
@@ -673,9 +844,43 @@
 récepteur de la vitamine D ;
 récepteur des hormones thyroïdes ;
 récepteur de l'acide rétinoïque et récepteurs associés ;
-récepteur activé par les proliférateurs de peroxysomes.
-Divers
-Récepteur de la transferrine
+récepteur activé par les proliférateurs de peroxysomes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Récepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9cepteur_(biochimie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Récepteurs intracellulaires</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Récepteur de la transferrine
 Récepteur de l'inositol-triphosphate</t>
         </is>
       </c>
